--- a/Issue 4B/HARLEQUIN 128 Issue 4B BOM.xlsx
+++ b/Issue 4B/HARLEQUIN 128 Issue 4B BOM.xlsx
@@ -458,9 +458,6 @@
     <t xml:space="preserve">AE10968-ND </t>
   </si>
   <si>
-    <t>ED10541-ND</t>
-  </si>
-  <si>
     <t>Modular6P</t>
   </si>
   <si>
@@ -611,9 +608,6 @@
     <t>296-1584-5-ND</t>
   </si>
   <si>
-    <t>R-78E5.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">945-2201-ND </t>
   </si>
   <si>
@@ -750,6 +744,13 @@
   </si>
   <si>
     <t>C25, C33, C40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+S7072-ND</t>
+  </si>
+  <si>
+    <t>R-78E5.0-1.0</t>
   </si>
 </sst>
 </file>
@@ -987,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1030,6 +1031,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1315,8 +1317,8 @@
   </sheetPr>
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1329,7 +1331,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -1340,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>1</v>
@@ -1348,7 +1350,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1404,7 +1406,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -1438,7 +1440,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D9" s="19">
         <v>2</v>
@@ -1460,7 +1462,7 @@
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
@@ -1580,13 +1582,13 @@
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D20" s="19">
         <v>1</v>
@@ -1622,7 +1624,7 @@
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1630,13 +1632,13 @@
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>144</v>
+      <c r="C24" s="24" t="s">
+        <v>240</v>
       </c>
       <c r="D24" s="19">
         <v>1</v>
@@ -1647,10 +1649,10 @@
         <v>28</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="D25" s="19">
         <v>1</v>
@@ -1658,13 +1660,13 @@
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D26" s="19">
         <v>1</v>
@@ -1678,7 +1680,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D27" s="19">
         <v>4</v>
@@ -1686,13 +1688,13 @@
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D28" s="19">
         <v>18</v>
@@ -1700,13 +1702,13 @@
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D29" s="19">
         <v>18</v>
@@ -1714,13 +1716,13 @@
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D30" s="19">
         <v>1</v>
@@ -1734,7 +1736,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D31" s="19">
         <v>1</v>
@@ -1742,13 +1744,13 @@
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D32" s="19">
         <v>8</v>
@@ -1762,7 +1764,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D33" s="19">
         <v>1</v>
@@ -1776,7 +1778,7 @@
         <v>39</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D34" s="19">
         <v>2</v>
@@ -1790,7 +1792,7 @@
         <v>41</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D35" s="19">
         <v>6</v>
@@ -1804,7 +1806,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D36" s="19">
         <v>3</v>
@@ -1818,7 +1820,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D37" s="19">
         <v>3</v>
@@ -1826,13 +1828,13 @@
     </row>
     <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D38" s="19">
         <v>5</v>
@@ -1846,7 +1848,7 @@
         <v>48</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D39" s="19">
         <v>1</v>
@@ -1860,7 +1862,7 @@
         <v>50</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D40" s="19">
         <v>4</v>
@@ -1874,7 +1876,7 @@
         <v>52</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D41" s="19">
         <v>2</v>
@@ -1888,7 +1890,7 @@
         <v>54</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D42" s="19">
         <v>1</v>
@@ -1902,7 +1904,7 @@
         <v>56</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D43" s="19">
         <v>1</v>
@@ -1916,7 +1918,7 @@
         <v>58</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D44" s="19">
         <v>1</v>
@@ -1924,13 +1926,13 @@
     </row>
     <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D45" s="19">
         <v>3</v>
@@ -1941,10 +1943,10 @@
         <v>60</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="D46" s="19">
         <v>1</v>
@@ -1955,10 +1957,10 @@
         <v>61</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="D47" s="19">
         <v>1</v>
@@ -1966,13 +1968,13 @@
     </row>
     <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A48" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D48" s="19">
         <v>1</v>
@@ -1980,13 +1982,13 @@
     </row>
     <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A49" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D49" s="19">
         <v>1</v>
@@ -2000,7 +2002,7 @@
         <v>64</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D50" s="19">
         <v>1</v>
@@ -2014,7 +2016,7 @@
         <v>66</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D51" s="19">
         <v>1</v>
@@ -2028,7 +2030,7 @@
         <v>68</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D52" s="19">
         <v>1</v>
@@ -2042,7 +2044,7 @@
         <v>70</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D53" s="19">
         <v>4</v>
@@ -2056,7 +2058,7 @@
         <v>72</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D54" s="19">
         <v>8</v>
@@ -2067,10 +2069,10 @@
         <v>74</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D55" s="19">
         <v>1</v>
@@ -2084,7 +2086,7 @@
         <v>75</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D56" s="19">
         <v>2</v>
@@ -2098,7 +2100,7 @@
         <v>77</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D57" s="19">
         <v>1</v>
@@ -2112,7 +2114,7 @@
         <v>79</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D58" s="19">
         <v>4</v>
@@ -2126,7 +2128,7 @@
         <v>81</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D59" s="19">
         <v>5</v>
@@ -2140,7 +2142,7 @@
         <v>83</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D60" s="19">
         <v>1</v>
@@ -2154,7 +2156,7 @@
         <v>85</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="19">
         <v>3</v>
@@ -2168,7 +2170,7 @@
         <v>87</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="19">
         <v>4</v>
@@ -2182,7 +2184,7 @@
         <v>89</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="19">
         <v>3</v>
@@ -2196,7 +2198,7 @@
         <v>91</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="19">
         <v>1</v>
@@ -2210,7 +2212,7 @@
         <v>93</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="19">
         <v>4</v>
@@ -2224,7 +2226,7 @@
         <v>95</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D66" s="19">
         <v>1</v>
@@ -2238,7 +2240,7 @@
         <v>97</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="19">
         <v>3</v>
@@ -2252,7 +2254,7 @@
         <v>99</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D68" s="19">
         <v>1</v>
@@ -2266,7 +2268,7 @@
         <v>101</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D69" s="19">
         <v>3</v>
@@ -2277,10 +2279,10 @@
         <v>103</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D70" s="19">
         <v>1</v>
@@ -2294,7 +2296,7 @@
         <v>104</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D71" s="19">
         <v>1</v>
@@ -2308,7 +2310,7 @@
         <v>106</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D72" s="19">
         <v>1</v>
@@ -2322,7 +2324,7 @@
         <v>108</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D73" s="19">
         <v>1</v>
@@ -2336,7 +2338,7 @@
         <v>110</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D74" s="19">
         <v>1</v>
@@ -2347,10 +2349,10 @@
         <v>112</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D75" s="19">
         <v>1</v>
@@ -2364,7 +2366,7 @@
         <v>113</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D76" s="19">
         <v>1</v>
@@ -2378,7 +2380,7 @@
         <v>115</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D77" s="19">
         <v>1</v>
@@ -2392,7 +2394,7 @@
         <v>117</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D78" s="19">
         <v>1</v>
@@ -2400,13 +2402,13 @@
     </row>
     <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D79" s="19">
         <v>1</v>
@@ -2415,10 +2417,10 @@
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="20"/>
       <c r="B80" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D80" s="11">
         <v>1</v>
@@ -2427,10 +2429,10 @@
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="20"/>
       <c r="B81" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D81" s="11">
         <v>24</v>
@@ -2439,22 +2441,22 @@
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="20"/>
       <c r="B82" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="20"/>
       <c r="B83" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D83" s="11">
         <v>8</v>
@@ -2463,10 +2465,10 @@
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="20"/>
       <c r="B84" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D84" s="11">
         <v>2</v>
@@ -2475,10 +2477,10 @@
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="20"/>
       <c r="B85" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D85" s="11">
         <v>1</v>
@@ -2487,10 +2489,10 @@
     <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="21"/>
       <c r="B86" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D86" s="15">
         <v>2</v>

--- a/Issue 4B/HARLEQUIN 128 Issue 4B BOM.xlsx
+++ b/Issue 4B/HARLEQUIN 128 Issue 4B BOM.xlsx
@@ -635,9 +635,6 @@
     <t>1923-1420-ND</t>
   </si>
   <si>
-    <t>SER1222-ND</t>
-  </si>
-  <si>
     <t>Y3 (OPTION)</t>
   </si>
   <si>
@@ -751,6 +748,9 @@
   </si>
   <si>
     <t>R-78E5.0-1.0</t>
+  </si>
+  <si>
+    <t>XC1346CT-ND</t>
   </si>
 </sst>
 </file>
@@ -1317,8 +1317,8 @@
   </sheetPr>
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1331,7 +1331,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -1342,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>1</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -1440,7 +1440,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D9" s="19">
         <v>2</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
@@ -1582,13 +1582,13 @@
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D20" s="19">
         <v>1</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1632,13 +1632,13 @@
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D24" s="19">
         <v>1</v>
@@ -1660,13 +1660,13 @@
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D26" s="19">
         <v>1</v>
@@ -1680,7 +1680,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D27" s="19">
         <v>4</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>31</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>32</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>36</v>
@@ -1926,10 +1926,10 @@
     </row>
     <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>166</v>
@@ -2069,10 +2069,10 @@
         <v>74</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="D55" s="19">
         <v>1</v>
@@ -2279,7 +2279,7 @@
         <v>103</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>194</v>
@@ -2402,13 +2402,13 @@
     </row>
     <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="D79" s="19">
         <v>1</v>
@@ -2417,10 +2417,10 @@
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="20"/>
       <c r="B80" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="D80" s="11">
         <v>1</v>
@@ -2429,10 +2429,10 @@
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="20"/>
       <c r="B81" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="D81" s="11">
         <v>24</v>
@@ -2441,22 +2441,22 @@
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="20"/>
       <c r="B82" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="D82" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="20"/>
       <c r="B83" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="D83" s="11">
         <v>8</v>
@@ -2465,10 +2465,10 @@
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="20"/>
       <c r="B84" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="D84" s="11">
         <v>2</v>
@@ -2477,10 +2477,10 @@
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="20"/>
       <c r="B85" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="D85" s="11">
         <v>1</v>
@@ -2489,10 +2489,10 @@
     <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="21"/>
       <c r="B86" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C86" s="14" t="s">
         <v>224</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>225</v>
       </c>
       <c r="D86" s="15">
         <v>2</v>
